--- a/dadosQOL.xlsx
+++ b/dadosQOL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petro\Dropbox\Estatistica\cursoR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06274509-0510-41F5-BD89-F56AF5B001E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AB4FE1-C4C0-4A77-AC86-0B83A82E9EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5250" yWindow="3000" windowWidth="14190" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,7 +89,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G71"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,22 +433,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>3.6359685502285859</v>
+        <v>2.858922423097169</v>
       </c>
       <c r="D2" s="2">
-        <v>2.628018790227205</v>
+        <v>3.7898537750670478</v>
       </c>
       <c r="E2" s="2">
-        <v>3.9493056463385812</v>
+        <v>4.3873552662400384</v>
       </c>
       <c r="F2" s="2">
-        <v>4.1533255182274109</v>
+        <v>3.8829612002677578</v>
       </c>
       <c r="G2" s="2">
-        <v>5.9377805759220417</v>
+        <v>5.7134837243547656</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -459,22 +456,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>4.0531902380727542</v>
+        <v>2.7155769167240611</v>
       </c>
       <c r="D3" s="2">
-        <v>4.1110281366478567</v>
+        <v>2.4003674070945449</v>
       </c>
       <c r="E3" s="2">
-        <v>5.6646341086591034</v>
+        <v>3.4971070767767718</v>
       </c>
       <c r="F3" s="2">
-        <v>5.7766719439695748</v>
+        <v>4.8565267792138558</v>
       </c>
       <c r="G3" s="2">
-        <v>5.0991821829553414</v>
+        <v>5.1350406384605449</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -482,22 +479,22 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>3.259804502832321</v>
+        <v>3.4871647405256572</v>
       </c>
       <c r="D4" s="2">
-        <v>3.3398344606554811</v>
+        <v>4.0355537206503937</v>
       </c>
       <c r="E4" s="2">
-        <v>3.3882250765238222</v>
+        <v>3.3455477057390239</v>
       </c>
       <c r="F4" s="2">
-        <v>4.4409769314520124</v>
+        <v>5.6671509213762041</v>
       </c>
       <c r="G4" s="2">
-        <v>5.3885406209606694</v>
+        <v>5.5518816782510187</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -505,22 +502,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>4.5435241709270633</v>
+        <v>3.081773343272872</v>
       </c>
       <c r="D5" s="2">
-        <v>3.7642763172711651</v>
+        <v>3.5075497597141032</v>
       </c>
       <c r="E5" s="2">
-        <v>4.3909879513120007</v>
+        <v>4.4254562175987617</v>
       </c>
       <c r="F5" s="2">
-        <v>3.996658853444</v>
+        <v>4.2685041778817636</v>
       </c>
       <c r="G5" s="2">
-        <v>3.7743907975466491</v>
+        <v>3.096707868749875</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -528,22 +525,22 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>4.3532987760970787</v>
+        <v>2.986016677251055</v>
       </c>
       <c r="D6" s="2">
-        <v>4.0338870924402803</v>
+        <v>2.546139801894868</v>
       </c>
       <c r="E6" s="2">
-        <v>5.8496327738924538</v>
+        <v>3.4937235869498511</v>
       </c>
       <c r="F6" s="2">
-        <v>4.1304970709250846</v>
+        <v>4.8612611365961733</v>
       </c>
       <c r="G6" s="2">
-        <v>3.7657276856024442</v>
+        <v>3.8940237816685501</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -551,22 +548,22 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>4.2917684039994786</v>
+        <v>3.239176727519546</v>
       </c>
       <c r="D7" s="2">
-        <v>4.0099125455512556</v>
+        <v>3.7401773123169759</v>
       </c>
       <c r="E7" s="2">
-        <v>4.0726213428077038</v>
+        <v>3.7864356428056372</v>
       </c>
       <c r="F7" s="2">
-        <v>4.933527405814357</v>
+        <v>5.7699029151217296</v>
       </c>
       <c r="G7" s="2">
-        <v>5.511083130367318</v>
+        <v>3.4174564270948489</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -574,22 +571,22 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>3.7583036848823621</v>
+        <v>3.567853692548224</v>
       </c>
       <c r="D8" s="2">
-        <v>3.4288205576349329</v>
+        <v>3.0327785624979389</v>
       </c>
       <c r="E8" s="2">
-        <v>5.2717762864634379</v>
+        <v>3.6308791135978762</v>
       </c>
       <c r="F8" s="2">
-        <v>6.1775014233794314</v>
+        <v>2.7834354999838129</v>
       </c>
       <c r="G8" s="2">
-        <v>4.5904227423337547</v>
+        <v>4.3743932437354331</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -597,22 +594,22 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>5.310233201704432</v>
+        <v>4.5384121173351657</v>
       </c>
       <c r="D9" s="2">
-        <v>5.2299764007084466</v>
+        <v>4.176278915215037</v>
       </c>
       <c r="E9" s="2">
-        <v>2.3879011997335362</v>
+        <v>4.8162111523686164</v>
       </c>
       <c r="F9" s="2">
-        <v>3.9115983055899268</v>
+        <v>6.4029223488443652</v>
       </c>
       <c r="G9" s="2">
-        <v>3.7973267452840571</v>
+        <v>4.6586173831105251</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -620,22 +617,22 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>4.7273735432559372</v>
+        <v>3.7002024893427579</v>
       </c>
       <c r="D10" s="2">
-        <v>2.087239522782665</v>
+        <v>3.011741918675114</v>
       </c>
       <c r="E10" s="2">
-        <v>4.4434730798121844</v>
+        <v>6.0921521938544076</v>
       </c>
       <c r="F10" s="2">
-        <v>5.8202185083398792</v>
+        <v>3.8965852354246691</v>
       </c>
       <c r="G10" s="2">
-        <v>5.1604248567407911</v>
+        <v>5.8674148545757143</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -643,22 +640,22 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>3.926709445985415</v>
+        <v>3.721698300565476</v>
       </c>
       <c r="D11" s="2">
-        <v>4.3806283396888306</v>
+        <v>3.591854892493008</v>
       </c>
       <c r="E11" s="2">
-        <v>5.7364246224385349</v>
+        <v>3.9374859013237482</v>
       </c>
       <c r="F11" s="2">
-        <v>4.1778839312404754</v>
+        <v>3.542056800226868</v>
       </c>
       <c r="G11" s="2">
-        <v>4.5118717543621214</v>
+        <v>5.7685625617253722</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -666,22 +663,22 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>3.0283544562095019</v>
+        <v>4.4935969450541799</v>
       </c>
       <c r="D12" s="2">
-        <v>2.5631579019577222</v>
+        <v>2.8322534275052891</v>
       </c>
       <c r="E12" s="2">
-        <v>4.1298621954873358</v>
+        <v>3.172496799597067</v>
       </c>
       <c r="F12" s="2">
-        <v>2.9623120759356891</v>
+        <v>4.7650756229191558</v>
       </c>
       <c r="G12" s="2">
-        <v>4.5552900487217913</v>
+        <v>3.320608027475588</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -689,22 +686,22 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>5.001261525623458</v>
+        <v>2.999754161259033</v>
       </c>
       <c r="D13" s="2">
-        <v>3.7521637355627062</v>
+        <v>3.535345818409767</v>
       </c>
       <c r="E13" s="2">
-        <v>4.7050004825187584</v>
+        <v>3.8161946168410741</v>
       </c>
       <c r="F13" s="2">
-        <v>4.3869212713248578</v>
+        <v>5.9810791184851304</v>
       </c>
       <c r="G13" s="2">
-        <v>4.5685705991261516</v>
+        <v>3.7901904496525551</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -712,22 +709,22 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>5.032061184975344</v>
+        <v>4.4318324885556937</v>
       </c>
       <c r="D14" s="2">
-        <v>4.1699896425625127</v>
+        <v>2.3443965171036449</v>
       </c>
       <c r="E14" s="2">
-        <v>3.2370350173842062</v>
+        <v>4.3878936216391597</v>
       </c>
       <c r="F14" s="2">
-        <v>4.8635276408899584</v>
+        <v>4.4835467594326772</v>
       </c>
       <c r="G14" s="2">
-        <v>4.3092513109111694</v>
+        <v>5.3139083806526068</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -735,22 +732,22 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>3.4040147294778631</v>
+        <v>2.7909991929509328</v>
       </c>
       <c r="D15" s="2">
-        <v>4.7870608425026546</v>
+        <v>4.0059665738020556</v>
       </c>
       <c r="E15" s="2">
-        <v>5.4955502080932082</v>
+        <v>2.8347873844065781</v>
       </c>
       <c r="F15" s="2">
-        <v>3.0022748565110189</v>
+        <v>3.1246508972396159</v>
       </c>
       <c r="G15" s="2">
-        <v>7.2260795750772999</v>
+        <v>4.8401243609038183</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -758,22 +755,22 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>2.747774329168855</v>
+        <v>4.9771683082247673</v>
       </c>
       <c r="D16" s="2">
-        <v>2.338885140209225</v>
+        <v>2.3635131319588858</v>
       </c>
       <c r="E16" s="2">
-        <v>3.790876896730921</v>
+        <v>5.3424559714539193</v>
       </c>
       <c r="F16" s="2">
-        <v>4.4825165391473787</v>
+        <v>4.1530840007668024</v>
       </c>
       <c r="G16" s="2">
-        <v>4.8987814947732398</v>
+        <v>4.211605162510649</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -781,22 +778,22 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>5.059827801366545</v>
+        <v>4.4223995767320776</v>
       </c>
       <c r="D17" s="2">
-        <v>4.0085608161285986</v>
+        <v>3.6042462498968102</v>
       </c>
       <c r="E17" s="2">
-        <v>4.6162076027824801</v>
+        <v>4.0787571880343352</v>
       </c>
       <c r="F17" s="2">
-        <v>3.2280991685330291</v>
+        <v>5.4374073053102316</v>
       </c>
       <c r="G17" s="2">
-        <v>3.986590354476423</v>
+        <v>3.625404394703295</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -804,22 +801,22 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>4.3511345660894438</v>
+        <v>2.50398799160928</v>
       </c>
       <c r="D18" s="2">
-        <v>3.0659617533133918</v>
+        <v>3.0032694184404001</v>
       </c>
       <c r="E18" s="2">
-        <v>6.051705790405669</v>
+        <v>3.593069479432716</v>
       </c>
       <c r="F18" s="2">
-        <v>3.7285651353799509</v>
+        <v>4.9230431920317246</v>
       </c>
       <c r="G18" s="2">
-        <v>4.8350456484790536</v>
+        <v>6.0721716711292633</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -827,22 +824,22 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>3.7765473596308992</v>
+        <v>3.6467348587657651</v>
       </c>
       <c r="D19" s="2">
-        <v>3.4489714606566331</v>
+        <v>3.1162649182672539</v>
       </c>
       <c r="E19" s="2">
-        <v>3.2528265144067992</v>
+        <v>6.1036694032184533</v>
       </c>
       <c r="F19" s="2">
-        <v>2.1986337123588489</v>
+        <v>3.6425486836430521</v>
       </c>
       <c r="G19" s="2">
-        <v>3.7323455577244822</v>
+        <v>4.8597605268803763</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -850,22 +847,22 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>2.841615571100804</v>
+        <v>3.083709693279403</v>
       </c>
       <c r="D20" s="2">
-        <v>3.5668916750924931</v>
+        <v>3.0624095314364861</v>
       </c>
       <c r="E20" s="2">
-        <v>2.5652768646826858</v>
+        <v>4.2842471879953257</v>
       </c>
       <c r="F20" s="2">
-        <v>3.8628509761919991</v>
+        <v>4.6480584386545756</v>
       </c>
       <c r="G20" s="2">
-        <v>4.4980625984203124</v>
+        <v>3.7074421131638871</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -873,22 +870,22 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>4.2560024424048049</v>
+        <v>4.1962351731804342</v>
       </c>
       <c r="D21" s="2">
-        <v>3.5397612118118338</v>
+        <v>1.716408879998339</v>
       </c>
       <c r="E21" s="2">
-        <v>3.355820673729581</v>
+        <v>4.7927523047867044</v>
       </c>
       <c r="F21" s="2">
-        <v>5.714958591525277</v>
+        <v>3.8083141083651171</v>
       </c>
       <c r="G21" s="2">
-        <v>3.940272091871786</v>
+        <v>3.9100997147410528</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -896,22 +893,22 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>3.8260297249178028</v>
+        <v>2.303013233752512</v>
       </c>
       <c r="D22" s="2">
-        <v>2.7587374423657649</v>
+        <v>3.0666324497849078</v>
       </c>
       <c r="E22" s="2">
-        <v>3.5189864373850459</v>
+        <v>4.9249264928699032</v>
       </c>
       <c r="F22" s="2">
-        <v>3.7442460053684878</v>
+        <v>3.4106264441634662</v>
       </c>
       <c r="G22" s="2">
-        <v>4.2236073180961302</v>
+        <v>3.35959210410791</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -919,22 +916,22 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>3.3984149836020028</v>
+        <v>3.7192798116913108</v>
       </c>
       <c r="D23" s="2">
-        <v>2.1371312995530309</v>
+        <v>4.0252954847339453</v>
       </c>
       <c r="E23" s="2">
-        <v>4.2381675277335322</v>
+        <v>5.0066238227963664</v>
       </c>
       <c r="F23" s="2">
-        <v>4.0148591232112176</v>
+        <v>4.5649298998110597</v>
       </c>
       <c r="G23" s="2">
-        <v>5.4882677155645929</v>
+        <v>3.9222938257162792</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -942,22 +939,22 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>4.8225744620400217</v>
+        <v>4.1253905148741898</v>
       </c>
       <c r="D24" s="2">
-        <v>1.5824469392659759</v>
+        <v>3.673846960772754</v>
       </c>
       <c r="E24" s="2">
-        <v>5.1833635605608146</v>
+        <v>2.644943913253349</v>
       </c>
       <c r="F24" s="2">
-        <v>5.2795457792384246</v>
+        <v>5.3499799120171581</v>
       </c>
       <c r="G24" s="2">
-        <v>5.6855860263113556</v>
+        <v>2.6109650533874889</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -965,22 +962,22 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>2.8864708795904108</v>
+        <v>3.5552536910203831</v>
       </c>
       <c r="D25" s="2">
-        <v>3.7256579493219828</v>
+        <v>4.7225677504571042</v>
       </c>
       <c r="E25" s="2">
-        <v>4.1048818910628722</v>
+        <v>4.2534617391732938</v>
       </c>
       <c r="F25" s="2">
-        <v>4.7738335768122111</v>
+        <v>3.483373249236609</v>
       </c>
       <c r="G25" s="2">
-        <v>5.8203279885731964</v>
+        <v>5.7909931339731973</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -988,22 +985,22 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>2.7429697248086811</v>
+        <v>6.0623299705836278</v>
       </c>
       <c r="D26" s="2">
-        <v>2.131515455691336</v>
+        <v>3.953302703261377</v>
       </c>
       <c r="E26" s="2">
-        <v>4.3594073411599163</v>
+        <v>3.7791741471746629</v>
       </c>
       <c r="F26" s="2">
-        <v>4.2106280033966534</v>
+        <v>2.5266417210479841</v>
       </c>
       <c r="G26" s="2">
-        <v>6.8574660821180506</v>
+        <v>4.6289752988372657</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1011,22 +1008,22 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="2">
-        <v>2.614001478830271</v>
+        <v>3.526947748485548</v>
       </c>
       <c r="D27" s="2">
-        <v>3.1721476596139202</v>
+        <v>3.0275903922851821</v>
       </c>
       <c r="E27" s="2">
-        <v>4.5873703944018063</v>
+        <v>4.5337036227024452</v>
       </c>
       <c r="F27" s="2">
-        <v>4.0362271464936734</v>
+        <v>4.4812510635696077</v>
       </c>
       <c r="G27" s="2">
-        <v>5.597090402225831</v>
+        <v>5.4254424312952816</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1034,22 +1031,22 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="2">
-        <v>2.259101915836895</v>
+        <v>3.8161957333938061</v>
       </c>
       <c r="D28" s="2">
-        <v>3.1829605601999762</v>
+        <v>2.9140055608485729</v>
       </c>
       <c r="E28" s="2">
-        <v>4.3009760063246674</v>
+        <v>2.5412001896330549</v>
       </c>
       <c r="F28" s="2">
-        <v>4.3744402054105551</v>
+        <v>4.3440393335840994</v>
       </c>
       <c r="G28" s="2">
-        <v>2.3224835458689461</v>
+        <v>5.071814060734563</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1057,22 +1054,22 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="2">
-        <v>2.8887035929607312</v>
+        <v>4.4849915802310401</v>
       </c>
       <c r="D29" s="2">
-        <v>2.943955053873927</v>
+        <v>3.0403066909834071</v>
       </c>
       <c r="E29" s="2">
-        <v>3.2398577966090949</v>
+        <v>3.5035688601841701</v>
       </c>
       <c r="F29" s="2">
-        <v>5.7350818951929181</v>
+        <v>4.022762149875259</v>
       </c>
       <c r="G29" s="2">
-        <v>4.7510912387050839</v>
+        <v>4.4051982204332241</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1080,22 +1077,22 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="2">
-        <v>5.1606326329976122</v>
+        <v>3.845841477827781</v>
       </c>
       <c r="D30" s="2">
-        <v>3.9038585063150761</v>
+        <v>4.5345555906595996</v>
       </c>
       <c r="E30" s="2">
-        <v>4.1510396133737659</v>
+        <v>4.1491774026722572</v>
       </c>
       <c r="F30" s="2">
-        <v>5.0930768473180619</v>
+        <v>2.7853249742873061</v>
       </c>
       <c r="G30" s="2">
-        <v>3.8968373662107689</v>
+        <v>5.0709199983537951</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1103,22 +1100,22 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="2">
-        <v>3.5947553345103649</v>
+        <v>4.0302409424210026</v>
       </c>
       <c r="D31" s="2">
-        <v>4.0671061605929921</v>
+        <v>3.7393278103914049</v>
       </c>
       <c r="E31" s="2">
-        <v>3.6845407148787279</v>
+        <v>4.6960987453878298</v>
       </c>
       <c r="F31" s="2">
-        <v>4.7263350155742874</v>
+        <v>4.439446766268305</v>
       </c>
       <c r="G31" s="2">
-        <v>4.605808980050293</v>
+        <v>4.0339366514407811</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1126,22 +1123,22 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="2">
-        <v>4.466302419896361</v>
+        <v>3.3404000481677278</v>
       </c>
       <c r="D32" s="2">
-        <v>3.324133450829573</v>
+        <v>2.1371478927856771</v>
       </c>
       <c r="E32" s="2">
-        <v>3.5785032811558599</v>
+        <v>3.913122668773136</v>
       </c>
       <c r="F32" s="2">
-        <v>4.5940649531458027</v>
+        <v>4.4644669377981607</v>
       </c>
       <c r="G32" s="2">
-        <v>4.4405583467256093</v>
+        <v>4.3825736727786966</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1149,22 +1146,22 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="2">
-        <v>3.380883485607689</v>
+        <v>3.3522117992929892</v>
       </c>
       <c r="D33" s="2">
-        <v>4.4272852543684937</v>
+        <v>4.2403999772874874</v>
       </c>
       <c r="E33" s="2">
-        <v>4.8846562155397732</v>
+        <v>4.286596543800969</v>
       </c>
       <c r="F33" s="2">
-        <v>2.7136689551611779</v>
+        <v>3.5234622922413452</v>
       </c>
       <c r="G33" s="2">
-        <v>4.2517423541976527</v>
+        <v>4.6351329754441446</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1172,22 +1169,22 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="2">
-        <v>2.831598429588627</v>
+        <v>3.06330643170367</v>
       </c>
       <c r="D34" s="2">
-        <v>3.3998439877347431</v>
+        <v>5.5392486201750071</v>
       </c>
       <c r="E34" s="2">
-        <v>4.3075091852960776</v>
+        <v>4.5980396657837437</v>
       </c>
       <c r="F34" s="2">
-        <v>5.6341784669089776</v>
+        <v>4.2671774601159518</v>
       </c>
       <c r="G34" s="2">
-        <v>6.0580578589611092</v>
+        <v>4.1657834082266003</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1195,22 +1192,22 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="2">
-        <v>3.5382928821713571</v>
+        <v>3.1960477617352741</v>
       </c>
       <c r="D35" s="2">
-        <v>4.2854862538785037</v>
+        <v>3.0840700874566789</v>
       </c>
       <c r="E35" s="2">
-        <v>3.5638431032694768</v>
+        <v>3.088444436471899</v>
       </c>
       <c r="F35" s="2">
-        <v>4.6991901047650462</v>
+        <v>3.8956273663267962</v>
       </c>
       <c r="G35" s="2">
-        <v>4.6863370577960994</v>
+        <v>4.9525035116895442</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1218,22 +1215,22 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="2">
-        <v>4.1687914412609297</v>
+        <v>2.472503932609762</v>
       </c>
       <c r="D36" s="2">
-        <v>1.815540529263109</v>
+        <v>3.8141174153680408</v>
       </c>
       <c r="E36" s="2">
-        <v>4.226124732530196</v>
+        <v>4.1276251148479233</v>
       </c>
       <c r="F36" s="2">
-        <v>4.8536163152037828</v>
+        <v>5.2701697124406177</v>
       </c>
       <c r="G36" s="2">
-        <v>5.5842330821605444</v>
+        <v>6.1829701338824119</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1241,22 +1238,22 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C37" s="2">
-        <v>4.6574403297283364</v>
+        <v>2.9313716662308531</v>
       </c>
       <c r="D37" s="2">
-        <v>3.4814038078710161</v>
+        <v>2.350681957814293</v>
       </c>
       <c r="E37" s="2">
-        <v>5.0201098383839309</v>
+        <v>2.7354116342956689</v>
       </c>
       <c r="F37" s="2">
-        <v>4.1050290676603467</v>
+        <v>5.5657348748531508</v>
       </c>
       <c r="G37" s="2">
-        <v>6.6738659295377358</v>
+        <v>5.2905763381352076</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1264,22 +1261,22 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C38" s="2">
-        <v>4.5955635482623061</v>
+        <v>4.2236380173107948</v>
       </c>
       <c r="D38" s="2">
-        <v>5.1866722141768706</v>
+        <v>4.6667517505703202</v>
       </c>
       <c r="E38" s="2">
-        <v>5.6328765857060246</v>
+        <v>4.0992738516800671</v>
       </c>
       <c r="F38" s="2">
-        <v>5.3977864263451067</v>
+        <v>4.0410924585001</v>
       </c>
       <c r="G38" s="2">
-        <v>6.2819306699355879</v>
+        <v>3.7657298448243761</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1287,22 +1284,22 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C39" s="2">
-        <v>3.605196771294267</v>
+        <v>2.0828344723498682</v>
       </c>
       <c r="D39" s="2">
-        <v>4.1077438286742964</v>
+        <v>1.7681008874161519</v>
       </c>
       <c r="E39" s="2">
-        <v>4.3941482422569287</v>
+        <v>4.2459467206565984</v>
       </c>
       <c r="F39" s="2">
-        <v>5.5454060864057544</v>
+        <v>6.3869371305871869</v>
       </c>
       <c r="G39" s="2">
-        <v>7.0736694201034362</v>
+        <v>4.3208398614453376</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1310,22 +1307,22 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C40" s="2">
-        <v>4.3481153991925741</v>
+        <v>3.760458554839428</v>
       </c>
       <c r="D40" s="2">
-        <v>4.5251496006414076</v>
+        <v>3.0566889884165809</v>
       </c>
       <c r="E40" s="2">
-        <v>5.6315190373694861</v>
+        <v>5.2874237968405486</v>
       </c>
       <c r="F40" s="2">
-        <v>5.2551019809820128</v>
+        <v>2.5132345515227059</v>
       </c>
       <c r="G40" s="2">
-        <v>5.061098988051798</v>
+        <v>4.0511840898002021</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1333,22 +1330,22 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C41" s="2">
-        <v>4.3413777528481061</v>
+        <v>1.898215444526415</v>
       </c>
       <c r="D41" s="2">
-        <v>6.2419582381380501</v>
+        <v>4.3742736969367799</v>
       </c>
       <c r="E41" s="2">
-        <v>6.2718727540485668</v>
+        <v>3.485728027413765</v>
       </c>
       <c r="F41" s="2">
-        <v>5.1753352554838594</v>
+        <v>3.645131831000572</v>
       </c>
       <c r="G41" s="2">
-        <v>7.3813798269426467</v>
+        <v>4.5664814717247184</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1356,22 +1353,22 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C42" s="2">
-        <v>4.3683589489866828</v>
+        <v>4.5919841850645398</v>
       </c>
       <c r="D42" s="2">
-        <v>4.7807414406545412</v>
+        <v>2.838798562742519</v>
       </c>
       <c r="E42" s="2">
-        <v>5.1787577965769724</v>
+        <v>4.3620017973559904</v>
       </c>
       <c r="F42" s="2">
-        <v>7.1126344719464747</v>
+        <v>3.9901751256267848</v>
       </c>
       <c r="G42" s="2">
-        <v>5.0613053937945267</v>
+        <v>5.5426206882561218</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1379,22 +1376,22 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C43" s="2">
-        <v>3.879786843948581</v>
+        <v>2.6699788868250689</v>
       </c>
       <c r="D43" s="2">
-        <v>3.9279221159414188</v>
+        <v>4.8079513137400252</v>
       </c>
       <c r="E43" s="2">
-        <v>5.166291874292499</v>
+        <v>3.8869335172764239</v>
       </c>
       <c r="F43" s="2">
-        <v>6.1752095323699896</v>
+        <v>3.8118559727439592</v>
       </c>
       <c r="G43" s="2">
-        <v>6.5148019467050657</v>
+        <v>4.7196516490094584</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1402,22 +1399,22 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C44" s="2">
-        <v>3.3442931919533678</v>
+        <v>4.119942286067154</v>
       </c>
       <c r="D44" s="2">
-        <v>5.8081835007444802</v>
+        <v>4.1378371151298454</v>
       </c>
       <c r="E44" s="2">
-        <v>5.0263908852648571</v>
+        <v>4.3508301623925787</v>
       </c>
       <c r="F44" s="2">
-        <v>7.9388331169545614</v>
+        <v>4.1939681414173107</v>
       </c>
       <c r="G44" s="2">
-        <v>6.22700905267161</v>
+        <v>5.1822231861843102</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1425,22 +1422,22 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C45" s="2">
-        <v>4.2128755179961761</v>
+        <v>2.816135809321771</v>
       </c>
       <c r="D45" s="2">
-        <v>4.0407667906370159</v>
+        <v>3.590219160920137</v>
       </c>
       <c r="E45" s="2">
-        <v>3.991185422866709</v>
+        <v>4.3030310648568184</v>
       </c>
       <c r="F45" s="2">
-        <v>4.0594664468205162</v>
+        <v>4.568550308927076</v>
       </c>
       <c r="G45" s="2">
-        <v>6.2285390006536749</v>
+        <v>3.928539630818769</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1448,22 +1445,22 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C46" s="2">
-        <v>3.4593507424299572</v>
+        <v>3.457652605179399</v>
       </c>
       <c r="D46" s="2">
-        <v>3.8313642142795339</v>
+        <v>3.6012951711758419</v>
       </c>
       <c r="E46" s="2">
-        <v>4.2166019838696789</v>
+        <v>5.428591194220612</v>
       </c>
       <c r="F46" s="2">
-        <v>4.7667775979473976</v>
+        <v>5.0831955089250567</v>
       </c>
       <c r="G46" s="2">
-        <v>5.9380532645901098</v>
+        <v>4.0740088056580417</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1471,22 +1468,22 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C47" s="2">
-        <v>2.914144451036476</v>
+        <v>3.4432439115501809</v>
       </c>
       <c r="D47" s="2">
-        <v>5.8288747660078997</v>
+        <v>2.9135199732013088</v>
       </c>
       <c r="E47" s="2">
-        <v>6.6114086184726029</v>
+        <v>2.876898854273493</v>
       </c>
       <c r="F47" s="2">
-        <v>4.3650617258147228</v>
+        <v>4.0275937774237081</v>
       </c>
       <c r="G47" s="2">
-        <v>8.0311027501533694</v>
+        <v>5.5935821879264367</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1494,22 +1491,22 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C48" s="2">
-        <v>3.006592949230225</v>
+        <v>3.4577934467554732</v>
       </c>
       <c r="D48" s="2">
-        <v>4.6817885400381227</v>
+        <v>4.5906795486413667</v>
       </c>
       <c r="E48" s="2">
-        <v>5.2976793536670312</v>
+        <v>3.8279783960261491</v>
       </c>
       <c r="F48" s="2">
-        <v>5.3152079397451786</v>
+        <v>5.4821972390263127</v>
       </c>
       <c r="G48" s="2">
-        <v>6.7443764560057344</v>
+        <v>3.989376498948936</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1517,22 +1514,22 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C49" s="2">
-        <v>3.670133427722575</v>
+        <v>4.3517708171384699</v>
       </c>
       <c r="D49" s="2">
-        <v>3.2642005552851932</v>
+        <v>4.043995189395666</v>
       </c>
       <c r="E49" s="2">
-        <v>3.7051758814597431</v>
+        <v>3.6165237827453729</v>
       </c>
       <c r="F49" s="2">
-        <v>4.9221020245767804</v>
+        <v>6.4110420889692374</v>
       </c>
       <c r="G49" s="2">
-        <v>5.0753764154737002</v>
+        <v>3.659422134497119</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1540,22 +1537,22 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C50" s="2">
-        <v>4.9011919158318857</v>
+        <v>3.8608926695591261</v>
       </c>
       <c r="D50" s="2">
-        <v>3.756300662604279</v>
+        <v>3.723687428244856</v>
       </c>
       <c r="E50" s="2">
-        <v>4.5803864606084259</v>
+        <v>4.9779596576309082</v>
       </c>
       <c r="F50" s="2">
-        <v>5.6811411994108738</v>
+        <v>4.4963366973682861</v>
       </c>
       <c r="G50" s="2">
-        <v>6.5043858254432498</v>
+        <v>4.0816447512938714</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1563,22 +1560,22 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C51" s="2">
-        <v>3.6152683205903151</v>
+        <v>3.4075076199225851</v>
       </c>
       <c r="D51" s="2">
-        <v>4.0666232869880101</v>
+        <v>4.2870015050489334</v>
       </c>
       <c r="E51" s="2">
-        <v>5.5080236242596481</v>
+        <v>3.6650941756546458</v>
       </c>
       <c r="F51" s="2">
-        <v>6.8105062444915312</v>
+        <v>3.1354187551604689</v>
       </c>
       <c r="G51" s="2">
-        <v>6.2133350551389306</v>
+        <v>4.3939193688384819</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1586,22 +1583,22 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" s="2">
-        <v>5.8091676097219</v>
+        <v>3.7732221359022211</v>
       </c>
       <c r="D52" s="2">
-        <v>5.6426877743250214</v>
+        <v>5.2033133018173254</v>
       </c>
       <c r="E52" s="2">
-        <v>6.6965176442038006</v>
+        <v>3.9297676644672652</v>
       </c>
       <c r="F52" s="2">
-        <v>4.5628566645893951</v>
+        <v>5.6478371268985779</v>
       </c>
       <c r="G52" s="2">
-        <v>5.624949120160772</v>
+        <v>6.0645066148102504</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1609,22 +1606,22 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" s="2">
-        <v>3.825294354552061</v>
+        <v>3.8240346932877922</v>
       </c>
       <c r="D53" s="2">
-        <v>4.9294038612275877</v>
+        <v>2.7732475640462941</v>
       </c>
       <c r="E53" s="2">
-        <v>6.1979544210027697</v>
+        <v>4.9857530248866251</v>
       </c>
       <c r="F53" s="2">
-        <v>5.5175415112804664</v>
+        <v>5.260565539569682</v>
       </c>
       <c r="G53" s="2">
-        <v>6.3517090555163458</v>
+        <v>6.4489579409162596</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1632,22 +1629,22 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="2">
-        <v>2.3584512550160919</v>
+        <v>3.342112972818291</v>
       </c>
       <c r="D54" s="2">
-        <v>4.3624011312102677</v>
+        <v>5.2262398071811447</v>
       </c>
       <c r="E54" s="2">
-        <v>4.7551221258050536</v>
+        <v>4.2083045719647707</v>
       </c>
       <c r="F54" s="2">
-        <v>5.3826376987876907</v>
+        <v>6.2114767023342949</v>
       </c>
       <c r="G54" s="2">
-        <v>5.6957005837924202</v>
+        <v>6.38396807743087</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1655,22 +1652,22 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" s="2">
-        <v>4.2106326323452663</v>
+        <v>2.8305819966234349</v>
       </c>
       <c r="D55" s="2">
-        <v>5.2937777951354459</v>
+        <v>3.5814586577502929</v>
       </c>
       <c r="E55" s="2">
-        <v>5.2965994220256798</v>
+        <v>4.1163355329927747</v>
       </c>
       <c r="F55" s="2">
-        <v>4.6687504890673388</v>
+        <v>7.2413338692382849</v>
       </c>
       <c r="G55" s="2">
-        <v>6.2253737085534029</v>
+        <v>5.4721012301047036</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1678,22 +1675,22 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" s="2">
-        <v>3.778078007160409</v>
+        <v>3.0524672371270838</v>
       </c>
       <c r="D56" s="2">
-        <v>3.248858418498465</v>
+        <v>4.4199758349003817</v>
       </c>
       <c r="E56" s="2">
-        <v>5.3379132527731361</v>
+        <v>5.7162725995637667</v>
       </c>
       <c r="F56" s="2">
-        <v>6.7882939588426252</v>
+        <v>5.5390342467468878</v>
       </c>
       <c r="G56" s="2">
-        <v>5.3749035455138534</v>
+        <v>6.1234421191770236</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1701,22 +1698,22 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="2">
-        <v>3.9492134794912199</v>
+        <v>3.6022409591158442</v>
       </c>
       <c r="D57" s="2">
-        <v>4.5649190463698668</v>
+        <v>3.5009020139164599</v>
       </c>
       <c r="E57" s="2">
-        <v>5.4871764457309844</v>
+        <v>6.8292031821910966</v>
       </c>
       <c r="F57" s="2">
-        <v>7.0166780348903766</v>
+        <v>6.6143838069328531</v>
       </c>
       <c r="G57" s="2">
-        <v>7.2560887507869323</v>
+        <v>5.6002384878540594</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1724,22 +1721,22 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" s="2">
-        <v>2.2087505691803648</v>
+        <v>3.7000275708073329</v>
       </c>
       <c r="D58" s="2">
-        <v>5.2563626068680636</v>
+        <v>4.4007510739898308</v>
       </c>
       <c r="E58" s="2">
-        <v>5.1963327114829454</v>
+        <v>5.5932969584944274</v>
       </c>
       <c r="F58" s="2">
-        <v>4.4650599226957901</v>
+        <v>2.8399625225422849</v>
       </c>
       <c r="G58" s="2">
-        <v>6.6232865810581902</v>
+        <v>5.8939242385368651</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1747,22 +1744,22 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" s="2">
-        <v>2.8794513609509771</v>
+        <v>3.342870049912583</v>
       </c>
       <c r="D59" s="2">
-        <v>5.2421904241093156</v>
+        <v>4.1445798604638062</v>
       </c>
       <c r="E59" s="2">
-        <v>5.2174237935190124</v>
+        <v>5.3405658629880639</v>
       </c>
       <c r="F59" s="2">
-        <v>6.2234950422311828</v>
+        <v>3.9417913145395942</v>
       </c>
       <c r="G59" s="2">
-        <v>5.0585385354801478</v>
+        <v>5.211939716899864</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1770,22 +1767,22 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" s="2">
-        <v>4.5307696997025433</v>
+        <v>3.6562304318049961</v>
       </c>
       <c r="D60" s="2">
-        <v>3.7510279578507491</v>
+        <v>4.0250839315343487</v>
       </c>
       <c r="E60" s="2">
-        <v>4.7599170809080853</v>
+        <v>4.9663850721596674</v>
       </c>
       <c r="F60" s="2">
-        <v>5.4994984382591099</v>
+        <v>3.5367496927684829</v>
       </c>
       <c r="G60" s="2">
-        <v>6.118499262998558</v>
+        <v>7.3394318050689034</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1793,22 +1790,22 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" s="2">
-        <v>3.4697736998384539</v>
+        <v>1.579657625751367</v>
       </c>
       <c r="D61" s="2">
-        <v>4.3713244988137996</v>
+        <v>3.4635748524545229</v>
       </c>
       <c r="E61" s="2">
-        <v>5.8547696398768636</v>
+        <v>5.4485462164973706</v>
       </c>
       <c r="F61" s="2">
-        <v>6.024698558516338</v>
+        <v>5.4157782012603164</v>
       </c>
       <c r="G61" s="2">
-        <v>6.3790364399897523</v>
+        <v>6.3275011869776359</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1816,22 +1813,22 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" s="2">
-        <v>4.3741203194842653</v>
+        <v>3.954448195552577</v>
       </c>
       <c r="D62" s="2">
-        <v>4.6293635267720328</v>
+        <v>4.4391996967395464</v>
       </c>
       <c r="E62" s="2">
-        <v>4.5389466490262018</v>
+        <v>3.2692825243085069</v>
       </c>
       <c r="F62" s="2">
-        <v>4.4521907186385583</v>
+        <v>5.692270382237524</v>
       </c>
       <c r="G62" s="2">
-        <v>5.9468062023462984</v>
+        <v>8.5130216802979923</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1839,22 +1836,22 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" s="2">
-        <v>3.383863835642281</v>
+        <v>4.5543680306917844</v>
       </c>
       <c r="D63" s="2">
-        <v>4.7326078703961301</v>
+        <v>5.0538315789081159</v>
       </c>
       <c r="E63" s="2">
-        <v>4.8059433569472088</v>
+        <v>6.3301318184710107</v>
       </c>
       <c r="F63" s="2">
-        <v>7.8135942987086411</v>
+        <v>4.2504649906209568</v>
       </c>
       <c r="G63" s="2">
-        <v>5.9232133639241606</v>
+        <v>6.3080832435473004</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -1862,22 +1859,22 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" s="2">
-        <v>3.9103183213816299</v>
+        <v>3.4577857339096449</v>
       </c>
       <c r="D64" s="2">
-        <v>4.4611604926509862</v>
+        <v>6.213773149561403</v>
       </c>
       <c r="E64" s="2">
-        <v>6.6743909816456526</v>
+        <v>5.0380446569078332</v>
       </c>
       <c r="F64" s="2">
-        <v>6.2060535566432593</v>
+        <v>4.4503798987887233</v>
       </c>
       <c r="G64" s="2">
-        <v>5.9733609113996033</v>
+        <v>6.7872911268603087</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -1885,22 +1882,22 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" s="2">
-        <v>4.0872140262721004</v>
+        <v>4.0964663332743338</v>
       </c>
       <c r="D65" s="2">
-        <v>4.5388749177531036</v>
+        <v>5.0908281828612907</v>
       </c>
       <c r="E65" s="2">
-        <v>4.8685659281060207</v>
+        <v>4.1363002413407557</v>
       </c>
       <c r="F65" s="2">
-        <v>5.0687538962391576</v>
+        <v>5.6267201734842303</v>
       </c>
       <c r="G65" s="2">
-        <v>5.4266801920374386</v>
+        <v>6.1106808088118756</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -1908,22 +1905,22 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" s="2">
-        <v>4.5581452426024587</v>
+        <v>3.634581941567347</v>
       </c>
       <c r="D66" s="2">
-        <v>4.5307546151286484</v>
+        <v>3.5820715845780962</v>
       </c>
       <c r="E66" s="2">
-        <v>5.5684198513800576</v>
+        <v>4.8575021222955819</v>
       </c>
       <c r="F66" s="2">
-        <v>5.4294323369297324</v>
+        <v>6.5233901889863724</v>
       </c>
       <c r="G66" s="2">
-        <v>5.055654821520303</v>
+        <v>5.7250375001831024</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -1931,22 +1928,22 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" s="2">
-        <v>3.257600714223416</v>
+        <v>5.0888901391936336</v>
       </c>
       <c r="D67" s="2">
-        <v>4.9174669449103936</v>
+        <v>4.1660524732347763</v>
       </c>
       <c r="E67" s="2">
-        <v>6.239698862551208</v>
+        <v>5.0688630122836278</v>
       </c>
       <c r="F67" s="2">
-        <v>4.6385219475727348</v>
+        <v>4.7766796932977993</v>
       </c>
       <c r="G67" s="2">
-        <v>5.2230642404974441</v>
+        <v>5.4583995586076606</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -1954,22 +1951,22 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" s="2">
-        <v>3.9015476487757539</v>
+        <v>5.2621616115913437</v>
       </c>
       <c r="D68" s="2">
-        <v>4.1045496740948444</v>
+        <v>3.350794053612546</v>
       </c>
       <c r="E68" s="2">
-        <v>5.8017377945279396</v>
+        <v>4.2865169619950763</v>
       </c>
       <c r="F68" s="2">
-        <v>4.7364464020640797</v>
+        <v>5.2029058753706616</v>
       </c>
       <c r="G68" s="2">
-        <v>5.1269492429646508</v>
+        <v>6.3025537812408379</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -1977,22 +1974,22 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" s="2">
-        <v>3.964554951845495</v>
+        <v>3.4769244654948439</v>
       </c>
       <c r="D69" s="2">
-        <v>4.3061545051313326</v>
+        <v>4.6730087169769217</v>
       </c>
       <c r="E69" s="2">
-        <v>4.7830753056111046</v>
+        <v>5.776474896028148</v>
       </c>
       <c r="F69" s="2">
-        <v>4.9389282300030839</v>
+        <v>6.5606250650936397</v>
       </c>
       <c r="G69" s="2">
-        <v>5.263817156706085</v>
+        <v>7.00704569169495</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2000,22 +1997,22 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" s="2">
-        <v>4.0248447834495531</v>
+        <v>3.9076408036582082</v>
       </c>
       <c r="D70" s="2">
-        <v>4.2239015477402093</v>
+        <v>3.7934131641218438</v>
       </c>
       <c r="E70" s="2">
-        <v>6.5117978676005377</v>
+        <v>4.6544824577064201</v>
       </c>
       <c r="F70" s="2">
-        <v>5.0091218234116717</v>
+        <v>5.2858135814060212</v>
       </c>
       <c r="G70" s="2">
-        <v>6.6773448171544434</v>
+        <v>6.3022490394797366</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2023,22 +2020,712 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" s="2">
-        <v>3.3112002588902958</v>
+        <v>3.9586052731267118</v>
       </c>
       <c r="D71" s="2">
-        <v>3.451744361403505</v>
+        <v>5.0432293077695496</v>
       </c>
       <c r="E71" s="2">
-        <v>5.3661484362563616</v>
+        <v>4.6326649617249629</v>
       </c>
       <c r="F71" s="2">
-        <v>5.9975730711670767</v>
+        <v>6.7764709123831732</v>
       </c>
       <c r="G71" s="2">
-        <v>5.7718412162685846</v>
+        <v>5.4348539016531996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2">
+        <v>4.0913394507216019</v>
+      </c>
+      <c r="D72" s="2">
+        <v>5.6834000239858309</v>
+      </c>
+      <c r="E72" s="2">
+        <v>4.0093932231083267</v>
+      </c>
+      <c r="F72" s="2">
+        <v>5.8082100558433787</v>
+      </c>
+      <c r="G72" s="2">
+        <v>5.4238609046544628</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
+        <v>3.8344132024656679</v>
+      </c>
+      <c r="D73" s="2">
+        <v>4.5435316407532076</v>
+      </c>
+      <c r="E73" s="2">
+        <v>4.4617433604098373</v>
+      </c>
+      <c r="F73" s="2">
+        <v>5.5049301373182669</v>
+      </c>
+      <c r="G73" s="2">
+        <v>4.7873913167890496</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2">
+        <v>3.466527853430986</v>
+      </c>
+      <c r="D74" s="2">
+        <v>4.5196483543617409</v>
+      </c>
+      <c r="E74" s="2">
+        <v>6.1482881153951761</v>
+      </c>
+      <c r="F74" s="2">
+        <v>4.5885462312953029</v>
+      </c>
+      <c r="G74" s="2">
+        <v>5.8072463678759956</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2">
+        <v>3.1467382393711172</v>
+      </c>
+      <c r="D75" s="2">
+        <v>5.0456048884544007</v>
+      </c>
+      <c r="E75" s="2">
+        <v>6.2333604142166719</v>
+      </c>
+      <c r="F75" s="2">
+        <v>4.7689515978386758</v>
+      </c>
+      <c r="G75" s="2">
+        <v>4.6279723410837352</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2">
+        <v>3.968068000451463</v>
+      </c>
+      <c r="D76" s="2">
+        <v>4.0577020515733579</v>
+      </c>
+      <c r="E76" s="2">
+        <v>6.1560833710459217</v>
+      </c>
+      <c r="F76" s="2">
+        <v>5.939690149535787</v>
+      </c>
+      <c r="G76" s="2">
+        <v>4.1113675809566814</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2">
+        <v>3.7547343890449021</v>
+      </c>
+      <c r="D77" s="2">
+        <v>4.7162423245494267</v>
+      </c>
+      <c r="E77" s="2">
+        <v>4.8366924083068632</v>
+      </c>
+      <c r="F77" s="2">
+        <v>4.8496400308120098</v>
+      </c>
+      <c r="G77" s="2">
+        <v>5.3001744172058363</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2">
+        <v>4.0375743795148278</v>
+      </c>
+      <c r="D78" s="2">
+        <v>4.9884677279671896</v>
+      </c>
+      <c r="E78" s="2">
+        <v>4.5106109330371318</v>
+      </c>
+      <c r="F78" s="2">
+        <v>5.7266619388923914</v>
+      </c>
+      <c r="G78" s="2">
+        <v>4.9166782464868461</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
+        <v>2.5100626986716961</v>
+      </c>
+      <c r="D79" s="2">
+        <v>5.4450077381413786</v>
+      </c>
+      <c r="E79" s="2">
+        <v>6.0346567169184278</v>
+      </c>
+      <c r="F79" s="2">
+        <v>5.1655468701532614</v>
+      </c>
+      <c r="G79" s="2">
+        <v>6.5779567696190169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2">
+        <v>2.6463026320568792</v>
+      </c>
+      <c r="D80" s="2">
+        <v>4.7948238416323452</v>
+      </c>
+      <c r="E80" s="2">
+        <v>4.8591623661663714</v>
+      </c>
+      <c r="F80" s="2">
+        <v>5.5793052369661984</v>
+      </c>
+      <c r="G80" s="2">
+        <v>7.5991692459584881</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2">
+        <v>3.023992778418704</v>
+      </c>
+      <c r="D81" s="2">
+        <v>4.2271669210615466</v>
+      </c>
+      <c r="E81" s="2">
+        <v>2.7064033015925562</v>
+      </c>
+      <c r="F81" s="2">
+        <v>5.4347035818205818</v>
+      </c>
+      <c r="G81" s="2">
+        <v>6.4314779858618314</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2">
+        <v>3.6858397941288472</v>
+      </c>
+      <c r="D82" s="2">
+        <v>4.4970648885989544</v>
+      </c>
+      <c r="E82" s="2">
+        <v>6.7436341663017494</v>
+      </c>
+      <c r="F82" s="2">
+        <v>5.7319748223031386</v>
+      </c>
+      <c r="G82" s="2">
+        <v>5.554032401112722</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2">
+        <v>4.3358121662049518</v>
+      </c>
+      <c r="D83" s="2">
+        <v>4.0962448338828752</v>
+      </c>
+      <c r="E83" s="2">
+        <v>6.7594263222222812</v>
+      </c>
+      <c r="F83" s="2">
+        <v>5.9379144019108034</v>
+      </c>
+      <c r="G83" s="2">
+        <v>6.0555846836112268</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2">
+        <v>5.0240878740563009</v>
+      </c>
+      <c r="D84" s="2">
+        <v>3.8600030616261138</v>
+      </c>
+      <c r="E84" s="2">
+        <v>5.2841923095259657</v>
+      </c>
+      <c r="F84" s="2">
+        <v>5.2646652093382977</v>
+      </c>
+      <c r="G84" s="2">
+        <v>6.9292215792480079</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2">
+        <v>4.4415844865321752</v>
+      </c>
+      <c r="D85" s="2">
+        <v>4.3258152591163217</v>
+      </c>
+      <c r="E85" s="2">
+        <v>5.5217777474291454</v>
+      </c>
+      <c r="F85" s="2">
+        <v>3.8991269261749282</v>
+      </c>
+      <c r="G85" s="2">
+        <v>6.321485181733796</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2">
+        <v>4.0993859913587647</v>
+      </c>
+      <c r="D86" s="2">
+        <v>4.8772874743987824</v>
+      </c>
+      <c r="E86" s="2">
+        <v>5.825939028357924</v>
+      </c>
+      <c r="F86" s="2">
+        <v>4.6308498681364796</v>
+      </c>
+      <c r="G86" s="2">
+        <v>6.2405483642892561</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2">
+        <v>2.4879820545971958</v>
+      </c>
+      <c r="D87" s="2">
+        <v>4.5675542919786896</v>
+      </c>
+      <c r="E87" s="2">
+        <v>6.9310705634711258</v>
+      </c>
+      <c r="F87" s="2">
+        <v>6.5059484208797906</v>
+      </c>
+      <c r="G87" s="2">
+        <v>5.6126191036297142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2">
+        <v>4.4028317438314319</v>
+      </c>
+      <c r="D88" s="2">
+        <v>3.7224312930637939</v>
+      </c>
+      <c r="E88" s="2">
+        <v>5.9568775380136634</v>
+      </c>
+      <c r="F88" s="2">
+        <v>3.8534948315228461</v>
+      </c>
+      <c r="G88" s="2">
+        <v>6.2807398959203873</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2">
+        <v>4.3539358781512307</v>
+      </c>
+      <c r="D89" s="2">
+        <v>5.4699224234122976</v>
+      </c>
+      <c r="E89" s="2">
+        <v>4.1061878285216658</v>
+      </c>
+      <c r="F89" s="2">
+        <v>4.3024129124874637</v>
+      </c>
+      <c r="G89" s="2">
+        <v>5.1523063907055029</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2">
+        <v>4.3917112928622526</v>
+      </c>
+      <c r="D90" s="2">
+        <v>4.5610018396195464</v>
+      </c>
+      <c r="E90" s="2">
+        <v>5.3710930475103904</v>
+      </c>
+      <c r="F90" s="2">
+        <v>6.3147997968980754</v>
+      </c>
+      <c r="G90" s="2">
+        <v>7.2973645524878687</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2">
+        <v>3.7572074615976332</v>
+      </c>
+      <c r="D91" s="2">
+        <v>4.3790023119359569</v>
+      </c>
+      <c r="E91" s="2">
+        <v>5.0660575147367144</v>
+      </c>
+      <c r="F91" s="2">
+        <v>5.058004493475603</v>
+      </c>
+      <c r="G91" s="2">
+        <v>5.7746626847051843</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2">
+        <v>4.1255568580177986</v>
+      </c>
+      <c r="D92" s="2">
+        <v>4.1075736851868552</v>
+      </c>
+      <c r="E92" s="2">
+        <v>5.9828408631273362</v>
+      </c>
+      <c r="F92" s="2">
+        <v>5.9495908360816818</v>
+      </c>
+      <c r="G92" s="2">
+        <v>4.8973289777662981</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2">
+        <v>3.9789814413132372</v>
+      </c>
+      <c r="D93" s="2">
+        <v>3.2812373085438451</v>
+      </c>
+      <c r="E93" s="2">
+        <v>4.0474423450411816</v>
+      </c>
+      <c r="F93" s="2">
+        <v>4.9585826641628286</v>
+      </c>
+      <c r="G93" s="2">
+        <v>6.2480953769464431</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2">
+        <v>3.2484911676876531</v>
+      </c>
+      <c r="D94" s="2">
+        <v>2.948786802053085</v>
+      </c>
+      <c r="E94" s="2">
+        <v>4.516047787465137</v>
+      </c>
+      <c r="F94" s="2">
+        <v>6.2866094676948991</v>
+      </c>
+      <c r="G94" s="2">
+        <v>6.955405744462551</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2">
+        <v>3.7529085814117251</v>
+      </c>
+      <c r="D95" s="2">
+        <v>5.6569176127113447</v>
+      </c>
+      <c r="E95" s="2">
+        <v>5.0917162797119611</v>
+      </c>
+      <c r="F95" s="2">
+        <v>6.0345935561605923</v>
+      </c>
+      <c r="G95" s="2">
+        <v>6.6331765839267369</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2">
+        <v>3.4130753172680102</v>
+      </c>
+      <c r="D96" s="2">
+        <v>3.568151146112077</v>
+      </c>
+      <c r="E96" s="2">
+        <v>4.7165177750276328</v>
+      </c>
+      <c r="F96" s="2">
+        <v>6.0463578082424476</v>
+      </c>
+      <c r="G96" s="2">
+        <v>7.1915329596615427</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2">
+        <v>3.0409567411217688</v>
+      </c>
+      <c r="D97" s="2">
+        <v>5.3462574651756052</v>
+      </c>
+      <c r="E97" s="2">
+        <v>6.9775080528755824</v>
+      </c>
+      <c r="F97" s="2">
+        <v>7.1552594717993223</v>
+      </c>
+      <c r="G97" s="2">
+        <v>6.7808219479345038</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2">
+        <v>5.124841234211658</v>
+      </c>
+      <c r="D98" s="2">
+        <v>5.4991062760025464</v>
+      </c>
+      <c r="E98" s="2">
+        <v>4.9088516523367494</v>
+      </c>
+      <c r="F98" s="2">
+        <v>5.1688420244630704</v>
+      </c>
+      <c r="G98" s="2">
+        <v>7.9807722197352504</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2">
+        <v>4.3123327559722977</v>
+      </c>
+      <c r="D99" s="2">
+        <v>3.696350089907646</v>
+      </c>
+      <c r="E99" s="2">
+        <v>4.9503498455963886</v>
+      </c>
+      <c r="F99" s="2">
+        <v>4.8195821161878154</v>
+      </c>
+      <c r="G99" s="2">
+        <v>5.258488961421774</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2">
+        <v>3.403734615081881</v>
+      </c>
+      <c r="D100" s="2">
+        <v>3.9273113970572191</v>
+      </c>
+      <c r="E100" s="2">
+        <v>5.4310846594795681</v>
+      </c>
+      <c r="F100" s="2">
+        <v>4.5591815117350212</v>
+      </c>
+      <c r="G100" s="2">
+        <v>5.9325068975063866</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2">
+        <v>4.0307577875641938</v>
+      </c>
+      <c r="D101" s="2">
+        <v>4.1463904113127628</v>
+      </c>
+      <c r="E101" s="2">
+        <v>5.6924977486170896</v>
+      </c>
+      <c r="F101" s="2">
+        <v>5.161022854356407</v>
+      </c>
+      <c r="G101" s="2">
+        <v>5.8403225937876888</v>
       </c>
     </row>
   </sheetData>
